--- a/Семинар 3 Итоговый проект.xlsx
+++ b/Семинар 3 Итоговый проект.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Документы Олег\Я бренд\Обучение\Программирование\1 четверть\4. Знакомство с базами данных\Семинар 3\HW-DB-Seminar3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F611785-5ECD-40D6-9DAE-3C7FCFA8E0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BC4ED4-4F6A-448F-A2FB-D2A2A2BEE8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="82">
   <si>
     <t>Параметр</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>Var</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>номер класса</t>
   </si>
 </sst>
 </file>
@@ -715,14 +721,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -737,12 +743,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7705725" y="10487025"/>
-          <a:ext cx="857250" cy="619125"/>
+          <a:off x="7705725" y="11658600"/>
+          <a:ext cx="885825" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj1" fmla="val 538"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -766,15 +772,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -789,8 +795,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7696200" y="9858375"/>
-          <a:ext cx="933450" cy="628650"/>
+          <a:off x="7705725" y="10591800"/>
+          <a:ext cx="933450" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1234,15 +1240,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1256,9 +1262,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6134101" y="14173200"/>
-          <a:ext cx="2466975" cy="533400"/>
+        <a:xfrm rot="10800000">
+          <a:off x="6134102" y="14506574"/>
+          <a:ext cx="2457448" cy="276226"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1284,15 +1290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1257299</xdr:colOff>
+      <xdr:colOff>1266825</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>371476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>495301</xdr:rowOff>
+      <xdr:colOff>600073</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1307,12 +1313,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3395662" y="8967788"/>
-          <a:ext cx="9182100" cy="1247775"/>
+          <a:off x="3233737" y="9139239"/>
+          <a:ext cx="9515474" cy="1238248"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 99793"/>
+            <a:gd name="adj1" fmla="val 100150"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1336,9 +1342,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>28578</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -1359,12 +1365,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4000501" y="13811250"/>
-          <a:ext cx="5057775" cy="790575"/>
+          <a:off x="3781427" y="13792201"/>
+          <a:ext cx="5495925" cy="790573"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 99718"/>
+            <a:gd name="adj1" fmla="val 99913"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1492,15 +1498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>819151</xdr:colOff>
+      <xdr:colOff>800101</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1515,12 +1521,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6134101" y="11449050"/>
-          <a:ext cx="790575" cy="209550"/>
+          <a:off x="6115051" y="11410950"/>
+          <a:ext cx="790575" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 602"/>
+            <a:gd name="adj1" fmla="val -1808"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1913,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B464A6-8DFC-4282-BDAE-C268A69818EB}">
   <dimension ref="A2:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2285,7 +2291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
@@ -2362,20 +2368,20 @@
         <v>66</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11" t="s">
         <v>5</v>
       </c>
       <c r="M27" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
@@ -2390,6 +2396,19 @@
       </c>
       <c r="F28" s="6" t="s">
         <v>4</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="11">
+        <v>1</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -2408,11 +2427,8 @@
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
@@ -2426,23 +2442,11 @@
       <c r="F30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
         <v>46</v>
       </c>
@@ -2456,40 +2460,55 @@
       <c r="F31" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="J32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M32" s="8">
         <v>1</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N32" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="J32" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" s="11">
-        <v>1</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>68</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="11">
+        <v>1</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -2525,11 +2544,8 @@
       <c r="F35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>50</v>
       </c>
@@ -2543,23 +2559,11 @@
       <c r="F36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="J36" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -2573,23 +2577,23 @@
       <c r="F37" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M37" s="8">
+      <c r="J37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N37" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="63" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -2603,18 +2607,20 @@
       <c r="F38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M38" s="11">
+      <c r="J38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M38" s="8">
         <v>3</v>
       </c>
-      <c r="N38" s="11" t="s">
-        <v>63</v>
+      <c r="N38" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -2630,6 +2636,19 @@
       </c>
       <c r="F39" s="12" t="s">
         <v>56</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="11">
+        <v>3</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
